--- a/MS Excel Namrata.xlsx
+++ b/MS Excel Namrata.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="14" r:id="rId12"/>
+    <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
+    <sheet name="BASIC" sheetId="4" r:id="rId2"/>
+    <sheet name="TIPS &amp; TRICKS" sheetId="5" r:id="rId3"/>
+    <sheet name="TEXT_TO_COLUMN" sheetId="6" r:id="rId4"/>
+    <sheet name="TEXT FUNCTION" sheetId="7" r:id="rId5"/>
+    <sheet name="LOGICAL OPERATOR" sheetId="8" r:id="rId6"/>
+    <sheet name="LOGICAL FUNCTION" sheetId="9" r:id="rId7"/>
+    <sheet name="DATE FUNCTION" sheetId="10" r:id="rId8"/>
+    <sheet name="NAME RANGE" sheetId="11" r:id="rId9"/>
+    <sheet name="COUNT IF FUNCTION" sheetId="12" r:id="rId10"/>
+    <sheet name="STATISTICAL FUNCTION" sheetId="13" r:id="rId11"/>
+    <sheet name="V-LOOKUP" sheetId="14" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="15" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="16" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="17" r:id="rId15"/>
@@ -28,13 +28,14 @@
     <sheet name="Sheet19" sheetId="21" r:id="rId19"/>
     <sheet name="Sheet20" sheetId="22" r:id="rId20"/>
     <sheet name="Sheet21" sheetId="23" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="270">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform mathematical calculations on statistical data and totaling long columns of numbers or determining percentage and averages
 </t>
@@ -922,6 +923,12 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1133,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1404,6 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1511,24 +1519,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="58314752"/>
-        <c:axId val="58316288"/>
+        <c:axId val="68985600"/>
+        <c:axId val="68987136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58314752"/>
+        <c:axId val="68985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58316288"/>
+        <c:crossAx val="68987136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58316288"/>
+        <c:axId val="68987136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,20 +1544,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58314752"/>
+        <c:crossAx val="68985600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3231,7 +3238,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3280,6 +3287,10 @@
       <c r="B7" t="s">
         <v>122</v>
       </c>
+      <c r="G7">
+        <f>COUNTIF(B5:B14,"Apples")</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
@@ -3317,6 +3328,10 @@
     <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>126</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIF(B5:B14,"banana")</f>
+        <v>1</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
@@ -3372,7 +3387,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3516,8 +3531,8 @@
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="33">
-        <f>SUMIF(F5:F9,"&lt;100")</f>
-        <v>210</v>
+        <f>SUMIF(F5:F9,"&lt;40")</f>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3583,7 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5336,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5532,7 +5547,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>80</v>
@@ -5542,6 +5557,33 @@
       </c>
       <c r="H8">
         <v>100</v>
+      </c>
+      <c r="I8">
+        <v>70</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>60</v>
+      </c>
+      <c r="M8">
+        <v>90</v>
+      </c>
+      <c r="N8">
+        <v>550</v>
+      </c>
+      <c r="O8" s="103">
+        <v>0.6875</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5563,6 +5605,33 @@
       <c r="H9">
         <v>55</v>
       </c>
+      <c r="I9">
+        <v>90</v>
+      </c>
+      <c r="J9">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>45</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>66</v>
+      </c>
+      <c r="N9">
+        <v>452</v>
+      </c>
+      <c r="O9" s="103">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
@@ -5582,6 +5651,33 @@
       </c>
       <c r="H10">
         <v>30</v>
+      </c>
+      <c r="I10">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
+      </c>
+      <c r="N10">
+        <v>323</v>
+      </c>
+      <c r="O10" s="103">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5592,6 +5688,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6396,7 +6504,7 @@
         <v>61</v>
       </c>
       <c r="F10">
-        <f t="array" ref="F10">LEN(E10)</f>
+        <f>LEN(B10)</f>
         <v>14</v>
       </c>
     </row>
@@ -6485,7 +6593,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6600,6 +6708,10 @@
       </c>
       <c r="F8" s="5">
         <v>5</v>
+      </c>
+      <c r="G8" t="b">
+        <f>E4&lt;F8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6715,7 +6827,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6950,7 +7062,7 @@
       </c>
       <c r="D7" s="14">
         <f ca="1">TODAY()</f>
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="G7" s="70"/>
       <c r="H7" s="70"/>
@@ -6963,7 +7075,7 @@
       <c r="C8" s="43"/>
       <c r="D8" s="15">
         <f ca="1">NOW()</f>
-        <v>44704.234585532409</v>
+        <v>44705.755572106478</v>
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="70"/>
@@ -7036,7 +7148,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:K14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MS Excel Namrata.xlsx
+++ b/MS Excel Namrata.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" tabRatio="1000" activeTab="15"/>
   </bookViews>
   <sheets>
-    <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
-    <sheet name="BASIC" sheetId="4" r:id="rId2"/>
-    <sheet name="TIPS &amp; TRICKS" sheetId="5" r:id="rId3"/>
-    <sheet name="TEXT_TO_COLUMN" sheetId="6" r:id="rId4"/>
-    <sheet name="TEXT FUNCTION" sheetId="7" r:id="rId5"/>
-    <sheet name="LOGICAL OPERATOR" sheetId="8" r:id="rId6"/>
-    <sheet name="LOGICAL FUNCTION" sheetId="9" r:id="rId7"/>
-    <sheet name="DATE FUNCTION" sheetId="10" r:id="rId8"/>
-    <sheet name="NAME RANGE" sheetId="11" r:id="rId9"/>
-    <sheet name="COUNT IF FUNCTION" sheetId="12" r:id="rId10"/>
-    <sheet name="STATISTICAL FUNCTION" sheetId="13" r:id="rId11"/>
-    <sheet name="V-LOOKUP" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="14" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="15" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="16" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="17" r:id="rId15"/>
@@ -28,14 +28,13 @@
     <sheet name="Sheet19" sheetId="21" r:id="rId19"/>
     <sheet name="Sheet20" sheetId="22" r:id="rId20"/>
     <sheet name="Sheet21" sheetId="23" r:id="rId21"/>
-    <sheet name="Sheet22" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="268">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform mathematical calculations on statistical data and totaling long columns of numbers or determining percentage and averages
 </t>
@@ -923,12 +922,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1126,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1411,7 +1404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1519,24 +1511,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68985600"/>
-        <c:axId val="68987136"/>
+        <c:axId val="131601152"/>
+        <c:axId val="131602688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68985600"/>
+        <c:axId val="131601152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68987136"/>
+        <c:crossAx val="131602688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68987136"/>
+        <c:axId val="131602688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,13 +1536,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68985600"/>
+        <c:crossAx val="131601152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3238,7 +3231,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3287,10 +3280,6 @@
       <c r="B7" t="s">
         <v>122</v>
       </c>
-      <c r="G7">
-        <f>COUNTIF(B5:B14,"Apples")</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
@@ -3328,10 +3317,6 @@
     <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>126</v>
-      </c>
-      <c r="E11">
-        <f>COUNTIF(B5:B14,"banana")</f>
-        <v>1</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
@@ -3387,7 +3372,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3531,8 +3516,8 @@
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="33">
-        <f>SUMIF(F5:F9,"&lt;40")</f>
-        <v>60</v>
+        <f>SUMIF(F5:F9,"&lt;100")</f>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3598,7 +3583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4368,7 +4353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -4768,7 +4753,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5352,7 +5337,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5547,7 +5532,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="F8">
         <v>80</v>
@@ -5557,33 +5542,6 @@
       </c>
       <c r="H8">
         <v>100</v>
-      </c>
-      <c r="I8">
-        <v>70</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
-      <c r="L8">
-        <v>60</v>
-      </c>
-      <c r="M8">
-        <v>90</v>
-      </c>
-      <c r="N8">
-        <v>550</v>
-      </c>
-      <c r="O8" s="103">
-        <v>0.6875</v>
-      </c>
-      <c r="P8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5605,33 +5563,6 @@
       <c r="H9">
         <v>55</v>
       </c>
-      <c r="I9">
-        <v>90</v>
-      </c>
-      <c r="J9">
-        <v>34</v>
-      </c>
-      <c r="K9">
-        <v>45</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
-      <c r="M9">
-        <v>66</v>
-      </c>
-      <c r="N9">
-        <v>452</v>
-      </c>
-      <c r="O9" s="103">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="P9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
@@ -5651,33 +5582,6 @@
       </c>
       <c r="H10">
         <v>30</v>
-      </c>
-      <c r="I10">
-        <v>38</v>
-      </c>
-      <c r="J10">
-        <v>32</v>
-      </c>
-      <c r="K10">
-        <v>21</v>
-      </c>
-      <c r="L10">
-        <v>22</v>
-      </c>
-      <c r="M10">
-        <v>35</v>
-      </c>
-      <c r="N10">
-        <v>323</v>
-      </c>
-      <c r="O10" s="103">
-        <v>0.40379999999999999</v>
-      </c>
-      <c r="P10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5688,18 +5592,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6504,7 +6396,7 @@
         <v>61</v>
       </c>
       <c r="F10">
-        <f>LEN(B10)</f>
+        <f t="array" ref="F10">LEN(E10)</f>
         <v>14</v>
       </c>
     </row>
@@ -6593,7 +6485,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6708,10 +6600,6 @@
       </c>
       <c r="F8" s="5">
         <v>5</v>
-      </c>
-      <c r="G8" t="b">
-        <f>E4&lt;F8</f>
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6827,7 +6715,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7075,7 +6963,7 @@
       <c r="C8" s="43"/>
       <c r="D8" s="15">
         <f ca="1">NOW()</f>
-        <v>44705.755572106478</v>
+        <v>44705.271126388892</v>
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="70"/>
@@ -7148,7 +7036,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J14" sqref="J14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
